--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B5DE8-454A-4FFC-8C0C-C22B46249F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB9338-6628-44AE-BC1C-6D59E4A7A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12504" yWindow="5940" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB9338-6628-44AE-BC1C-6D59E4A7A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD620AF-BD75-47B8-B6E4-49EB511F8AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>弹药打折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -423,9 +431,10 @@
     <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +453,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -464,8 +476,11 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -484,8 +499,11 @@
       <c r="F3" s="1">
         <v>-0.5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -503,6 +521,9 @@
       </c>
       <c r="F4" s="1">
         <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD620AF-BD75-47B8-B6E4-49EB511F8AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F4607-16D0-4901-89CE-A7ADCD4ABEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4944" yWindow="1620" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DefUP</t>
   </si>
 </sst>
 </file>
@@ -420,7 +419,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F4607-16D0-4901-89CE-A7ADCD4ABEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4935F1-1CF4-4EA3-B55B-C5E617EFE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="1620" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="6168" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,31 +55,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>costMedicineRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costAmmoRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药品打折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹药打折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DefUP</t>
+  </si>
+  <si>
+    <t>resCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫击炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,0.5,3,5,2,3,30,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,12 +468,13 @@
     <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="7" width="18.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,16 +488,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -470,59 +520,119 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4935F1-1CF4-4EA3-B55B-C5E617EFE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49AA4A-34E1-48AA-90D5-71639A6CE947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="6168" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,11 +114,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100,0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[100,0.5,3,5,2,3,30,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10000,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000,0.5,3,0,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000,0.5,3,0.2,0.5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -593,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -626,12 +650,76 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49AA4A-34E1-48AA-90D5-71639A6CE947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617F9E5-619F-47BB-BA92-8FF31CE8E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="2796" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100,0.5,3,5,2,3,30,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[10000,0.5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,10 @@
   </si>
   <si>
     <t>[1000,0.5,3,0.2,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,0.5,10,30,7,3,30,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
@@ -696,10 +696,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -714,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617F9E5-619F-47BB-BA92-8FF31CE8E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFB9C24-B1F5-4631-8EFD-78D7A8D3F485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="2796" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,7 +142,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100,0.5,10,30,7,3,30,10]</t>
+    <t>Roadblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammo Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,0.5,10,30,7,6,30,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,23 +510,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -570,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -591,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -602,16 +630,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -623,11 +651,11 @@
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -635,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -650,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -659,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -667,16 +695,16 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -688,10 +716,10 @@
         <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -699,16 +727,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -720,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFB9C24-B1F5-4631-8EFD-78D7A8D3F485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1115FD-75F6-4DF6-8B18-ED20A344AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1000,0.5,3,0.2,0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roadblock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>[100,0.5,10,30,7,6,30,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000,0.5,3,0.4,0.4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,22 +511,22 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -651,11 +651,11 @@
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -719,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1115FD-75F6-4DF6-8B18-ED20A344AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97622F4B-2768-4A8E-8364-FB808FEAA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[10000,0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹药箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,14 @@
   </si>
   <si>
     <t>[1000,0.5,3,0.4,0.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3000,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2000,0.5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -598,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -613,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,13 +649,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -663,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -678,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -692,10 +696,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -710,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -724,16 +728,16 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -742,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97622F4B-2768-4A8E-8364-FB808FEAA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80743524-3FD1-4672-AB17-9690D79DE87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1000,0.5,3,0,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roadblock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   </si>
   <si>
     <t>[2000,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000,0.5,3,0.5,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -699,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -746,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80743524-3FD1-4672-AB17-9690D79DE87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C0F26-4F8B-4523-9EEB-B54B4D0975FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C0F26-4F8B-4523-9EEB-B54B4D0975FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC5E3C-A577-49BF-9EFB-318D1482D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,23 +158,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100,0.5,10,30,7,6,30,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1000,0.5,3,0.4,0.4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3000,0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2000,0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1000,0.5,3,0.5,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[500,0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2000,0.5,10,30,7,6,30,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC5E3C-A577-49BF-9EFB-318D1482D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A6D77-21BC-4EC4-B3DD-AC3724DF7C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2000,0.5,10,30,7,6,30,10]</t>
+    <t>[2000,0.5,5,15,7,6,30,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A6D77-21BC-4EC4-B3DD-AC3724DF7C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B90E0B-B5CD-441F-9FC0-CA3605EAB478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/BuildSkill_Data.xlsx
+++ b/GameDesign/ExcelData/BuildSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B90E0B-B5CD-441F-9FC0-CA3605EAB478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0E946-9F66-4C8F-A3B5-45674C38DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,18 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掩体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迫击炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timeCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,18 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹药箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Medicine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医药箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ammo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ammo Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medic Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Medic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +147,34 @@
   </si>
   <si>
     <t>[2000,0.5,5,15,7,6,30,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roadblock is an useful construction to block the areas. No units would be able to go through an area with Roadblock on them without destroying them first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunkers can protect units from bombardments and shotfires. Units are safe when they are in bunkers. That is, when they are not faced with flamethrowers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful weapons. Destroy them as soon as possible if they are controlled by enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammo box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Med kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An ammo box contains 3 supplies of ammo that will restore 50% of a unit's ammo immediately. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An Med kit contains 3 portions of medical supplies that will restore 50% of a unit's health  immediately. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,13 +224,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,23 +517,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -579,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -588,21 +591,21 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -617,24 +620,24 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -649,25 +652,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -682,24 +685,24 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -714,24 +717,24 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -746,13 +749,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
